--- a/ID733 Test Project marking rubric.xlsx
+++ b/ID733 Test Project marking rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://otagopoly-my.sharepoint.com/personal/padmiraal_op_ac_nz/Documents/Courses/01 BIT/IN627 and IN733/IN733 Software Testing 2021/Assessments/Software testing projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bachelor of Information Technology\2023\2023 - S2\QA and Testing\QA project\qa-testing-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="592" documentId="11_12A6084F080E80E46F72A466EC1F7C22089A0C2E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7C9A9F-DFE1-4A7F-AAF5-A79FE21E8926}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA637C1F-A9E6-47D2-8CEF-F249B67DD6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -583,7 +583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -591,7 +591,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -632,13 +631,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,17 +649,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1004,429 +1003,429 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" customWidth="1"/>
     <col min="5" max="5" width="28.140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="2" customWidth="1"/>
     <col min="7" max="7" width="29.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="7.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="24" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8" style="23" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
     </row>
-    <row r="2" spans="1:10" s="4" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="14" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="33">
-        <v>0</v>
-      </c>
-      <c r="I3" s="26">
+      <c r="H3" s="32">
+        <v>0</v>
+      </c>
+      <c r="I3" s="25">
         <v>0.5</v>
       </c>
-      <c r="J3" s="33">
+      <c r="J3" s="32">
         <f>H3*I3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48"/>
-      <c r="B4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="33">
-        <v>0</v>
-      </c>
-      <c r="I4" s="27">
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="26">
         <v>2</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="32">
         <f t="shared" ref="J4:J13" si="0">H4*I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="33">
-        <v>0</v>
-      </c>
-      <c r="I5" s="28">
+      <c r="H5" s="32">
+        <v>0</v>
+      </c>
+      <c r="I5" s="27">
         <v>0.5</v>
       </c>
-      <c r="J5" s="33">
+      <c r="J5" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="33">
-        <v>0</v>
-      </c>
-      <c r="I6" s="29">
+      <c r="H6" s="32">
+        <v>0</v>
+      </c>
+      <c r="I6" s="28">
         <v>0.5</v>
       </c>
-      <c r="J6" s="33">
+      <c r="J6" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="48"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="33">
-        <v>0</v>
-      </c>
-      <c r="I7" s="27">
+      <c r="H7" s="32">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26">
         <v>1.5</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="H8" s="33">
-        <v>0</v>
-      </c>
-      <c r="I8" s="27">
+      <c r="H8" s="32">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26">
         <v>1.5</v>
       </c>
-      <c r="J8" s="33">
+      <c r="J8" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="48"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="33">
-        <v>0</v>
-      </c>
-      <c r="I9" s="27">
+      <c r="H9" s="32">
+        <v>0</v>
+      </c>
+      <c r="I9" s="26">
         <v>0.5</v>
       </c>
-      <c r="J9" s="33">
+      <c r="J9" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="33">
-        <v>0</v>
-      </c>
-      <c r="I10" s="27">
+      <c r="H10" s="32">
+        <v>0</v>
+      </c>
+      <c r="I10" s="26">
         <v>0.5</v>
       </c>
-      <c r="J10" s="33">
+      <c r="J10" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="33">
-        <v>0</v>
-      </c>
-      <c r="I11" s="27">
+      <c r="H11" s="32">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26">
         <v>0.5</v>
       </c>
-      <c r="J11" s="33">
+      <c r="J11" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="33">
-        <v>0</v>
-      </c>
-      <c r="I12" s="27">
+      <c r="H12" s="32">
+        <v>0</v>
+      </c>
+      <c r="I12" s="26">
         <v>1</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="48"/>
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="G13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="33">
-        <v>0</v>
-      </c>
-      <c r="I13" s="30">
+      <c r="H13" s="32">
+        <v>0</v>
+      </c>
+      <c r="I13" s="29">
         <v>1</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="43" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="22"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="45">
+      <c r="H14" s="21"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="44">
         <f>SUM(J3:J13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="46"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="8">
